--- a/Server Inventory.xlsx
+++ b/Server Inventory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ganesh\PC291774\173203\PRM\Ansible\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaseStudy\Patch_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,6 @@
     <t>Patching_Group</t>
   </si>
   <si>
-    <t>Dev_1</t>
-  </si>
-  <si>
     <t>Day_03</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Prod369</t>
+  </si>
+  <si>
+    <t>DEV_1</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,139 +469,139 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Server Inventory.xlsx
+++ b/Server Inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Patching_day</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>DEV_1</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>25-12-2018</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,16 +164,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,9 +478,10 @@
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -471,8 +491,11 @@
       <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -482,8 +505,11 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -493,8 +519,11 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -504,8 +533,11 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -515,8 +547,11 @@
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -526,8 +561,11 @@
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -537,8 +575,11 @@
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -548,8 +589,11 @@
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -559,8 +603,11 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -570,8 +617,11 @@
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -581,8 +631,11 @@
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -592,8 +645,11 @@
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -602,6 +658,9 @@
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
